--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>yearmonth</t>
   </si>
@@ -28,6 +28,60 @@
     <t>retention_rate</t>
   </si>
   <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
     <t>2020-02</t>
   </si>
   <si>
@@ -203,6 +257,18 @@
   </si>
   <si>
     <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
   </si>
 </sst>
 </file>
@@ -560,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>7.407407407407407</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -599,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="D3">
-        <v>2.777777777777778</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -613,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.824858757062147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -627,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>11.11111111111111</v>
+        <v>3.74331550802139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -641,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1.176470588235294</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -655,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.675977653631285</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -669,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -683,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>1.08695652173913</v>
+        <v>5.147058823529411</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -697,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D10">
-        <v>3.870967741935484</v>
+        <v>4.132231404958678</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -711,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>3.355704697986577</v>
+        <v>2.678571428571428</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -728,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>1.503759398496241</v>
+        <v>2.02020202020202</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -739,13 +805,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -753,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.511811023622047</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -767,13 +833,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4.741379310344827</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -784,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="D16">
-        <v>3.846153846153846</v>
+        <v>1.3215859030837</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -795,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="D17">
-        <v>2.985074626865671</v>
+        <v>2.099737532808399</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -809,13 +875,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="D18">
-        <v>2.105263157894737</v>
+        <v>2.424242424242424</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -823,13 +889,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="D19">
-        <v>3.79746835443038</v>
+        <v>2.906976744186046</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -837,13 +903,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="D20">
-        <v>2.247191011235955</v>
+        <v>2.6578073089701</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -851,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="D21">
-        <v>3.448275862068965</v>
+        <v>1.702127659574468</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -865,13 +931,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="D22">
-        <v>1.492537313432836</v>
+        <v>3.864734299516908</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -879,13 +945,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="D23">
-        <v>1.666666666666667</v>
+        <v>2.484472049689441</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -893,13 +959,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="D24">
-        <v>2.702702702702703</v>
+        <v>2.136752136752137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -910,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="D25">
-        <v>2.666666666666667</v>
+        <v>0.7352941176470588</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -921,13 +987,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="D26">
-        <v>2.222222222222222</v>
+        <v>2.72108843537415</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -935,13 +1001,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="D27">
-        <v>2.469135802469136</v>
+        <v>3.154574132492113</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -949,13 +1015,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="D28">
-        <v>2.380952380952381</v>
+        <v>3.257328990228013</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -963,13 +1029,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="D29">
-        <v>2.531645569620253</v>
+        <v>4.330708661417323</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -977,13 +1043,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="D30">
-        <v>4.347826086956522</v>
+        <v>3.043478260869565</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -991,13 +1057,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="D31">
-        <v>3.333333333333333</v>
+        <v>0.9389671361502347</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1005,13 +1071,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1019,13 +1085,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D33">
-        <v>5.839416058394161</v>
+        <v>1.273885350318471</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1033,13 +1099,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="D34">
-        <v>2.142857142857143</v>
+        <v>2.371541501976284</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1047,13 +1113,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="D35">
-        <v>3.361344537815126</v>
+        <v>2.966101694915254</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1061,13 +1127,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="D36">
-        <v>3.96039603960396</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1075,13 +1141,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="D37">
-        <v>3.053435114503817</v>
+        <v>4.761904761904762</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1089,13 +1155,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D38">
-        <v>5.454545454545454</v>
+        <v>3.214285714285714</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1103,13 +1169,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="D39">
-        <v>1.935483870967742</v>
+        <v>5.652173913043478</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1117,13 +1183,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D40">
-        <v>3.08641975308642</v>
+        <v>3.139013452914798</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1131,13 +1197,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D41">
-        <v>2.419354838709677</v>
+        <v>2.752293577981652</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1145,13 +1211,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="D42">
-        <v>6.707317073170732</v>
+        <v>3.082191780821918</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1159,13 +1225,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="D43">
-        <v>2.857142857142857</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1173,13 +1239,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="D44">
-        <v>2.34375</v>
+        <v>2.755905511811024</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1187,13 +1253,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="D45">
-        <v>2.272727272727273</v>
+        <v>3.813559322033898</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1201,13 +1267,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="D46">
-        <v>3.64963503649635</v>
+        <v>5.204460966542751</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1215,13 +1281,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="D47">
-        <v>4.587155963302752</v>
+        <v>4.508196721311475</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1229,13 +1295,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="D48">
-        <v>2.419354838709677</v>
+        <v>4.25531914893617</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1243,13 +1309,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="D49">
-        <v>2.521008403361344</v>
+        <v>4.980842911877394</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1257,13 +1323,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="D50">
-        <v>5.128205128205128</v>
+        <v>5.017921146953405</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1271,13 +1337,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="D51">
-        <v>4.195804195804196</v>
+        <v>7.641196013289036</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1285,13 +1351,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="D52">
-        <v>7.82122905027933</v>
+        <v>3.754266211604096</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1299,13 +1365,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="D53">
-        <v>8.092485549132949</v>
+        <v>4.135338345864661</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1316,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="D54">
-        <v>7.586206896551724</v>
+        <v>4.641350210970464</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1327,13 +1393,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="D55">
-        <v>7.894736842105263</v>
+        <v>2.371541501976284</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1341,13 +1407,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="D56">
-        <v>7.589285714285714</v>
+        <v>5.067567567567568</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1355,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="D57">
-        <v>5.286343612334802</v>
+        <v>2.651515151515151</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1369,13 +1435,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="D58">
-        <v>4.891304347826087</v>
+        <v>2.952029520295203</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1383,13 +1449,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D59">
-        <v>7.042253521126761</v>
+        <v>1.716738197424893</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1397,13 +1463,321 @@
         <v>62</v>
       </c>
       <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>293</v>
+      </c>
+      <c r="D60">
+        <v>5.119453924914676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>263</v>
+      </c>
+      <c r="D61">
+        <v>3.802281368821293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>249</v>
+      </c>
+      <c r="D62">
+        <v>4.417670682730924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>240</v>
+      </c>
+      <c r="D63">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>285</v>
+      </c>
+      <c r="D64">
+        <v>2.105263157894737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>209</v>
+      </c>
+      <c r="D65">
+        <v>2.392344497607656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>224</v>
+      </c>
+      <c r="D66">
+        <v>4.017857142857143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>259</v>
+      </c>
+      <c r="D67">
+        <v>3.088803088803089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
         <v>13</v>
       </c>
-      <c r="C60">
-        <v>203</v>
-      </c>
-      <c r="D60">
-        <v>6.403940886699508</v>
+      <c r="C68">
+        <v>232</v>
+      </c>
+      <c r="D68">
+        <v>5.603448275862069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>210</v>
+      </c>
+      <c r="D69">
+        <v>3.80952380952381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>237</v>
+      </c>
+      <c r="D70">
+        <v>7.172995780590717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>241</v>
+      </c>
+      <c r="D71">
+        <v>8.298755186721991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>191</v>
+      </c>
+      <c r="D72">
+        <v>8.37696335078534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>207</v>
+      </c>
+      <c r="D73">
+        <v>8.212560386473431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>267</v>
+      </c>
+      <c r="D74">
+        <v>8.988764044943821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>263</v>
+      </c>
+      <c r="D75">
+        <v>6.083650190114068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>230</v>
+      </c>
+      <c r="D76">
+        <v>5.217391304347826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>257</v>
+      </c>
+      <c r="D77">
+        <v>7.003891050583658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>264</v>
+      </c>
+      <c r="D78">
+        <v>6.439393939393939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>257</v>
+      </c>
+      <c r="D79">
+        <v>6.22568093385214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>230</v>
+      </c>
+      <c r="D80">
+        <v>6.521739130434782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>225</v>
+      </c>
+      <c r="D81">
+        <v>6.222222222222222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>228</v>
+      </c>
+      <c r="D82">
+        <v>5.263157894736842</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -654,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>1.282051282051282</v>
+        <v>1.298701298701299</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -682,10 +682,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>2.824858757062147</v>
+        <v>2.906976744186046</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -693,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5">
-        <v>3.74331550802139</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -710,10 +710,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D6">
-        <v>1.176470588235294</v>
+        <v>1.212121212121212</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -724,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D7">
-        <v>1.675977653631285</v>
+        <v>1.724137931034483</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8">
-        <v>0.6060606060606061</v>
+        <v>0.6172839506172839</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>5.147058823529411</v>
+        <v>4.477611940298507</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -766,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>4.132231404958678</v>
+        <v>4.310344827586207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>2.678571428571428</v>
+        <v>2.752293577981652</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -794,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>2.02020202020202</v>
+        <v>2.040816326530612</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -808,10 +808,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13">
-        <v>2.564102564102564</v>
+        <v>2.586206896551724</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -819,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14">
-        <v>5.511811023622047</v>
+        <v>4.761904761904762</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -836,10 +836,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15">
-        <v>4.741379310344827</v>
+        <v>4.782608695652174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -850,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16">
-        <v>1.3215859030837</v>
+        <v>1.339285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -864,10 +864,10 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D17">
-        <v>2.099737532808399</v>
+        <v>2.116402116402116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -878,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D18">
-        <v>2.424242424242424</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -892,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D19">
-        <v>2.906976744186046</v>
+        <v>2.923976608187134</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -903,13 +903,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D20">
-        <v>2.6578073089701</v>
+        <v>2.341137123745819</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -920,10 +920,10 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21">
-        <v>1.702127659574468</v>
+        <v>1.70940170940171</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -931,13 +931,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22">
-        <v>3.864734299516908</v>
+        <v>3.414634146341464</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -948,10 +948,10 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23">
-        <v>2.484472049689441</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -976,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D25">
-        <v>0.7352941176470588</v>
+        <v>0.7380073800738007</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1001,13 +1001,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>317</v>
       </c>
       <c r="D27">
-        <v>3.154574132492113</v>
+        <v>2.839116719242902</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28">
-        <v>3.257328990228013</v>
+        <v>3.267973856209151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1029,13 +1029,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D29">
-        <v>4.330708661417323</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1043,13 +1043,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30">
-        <v>3.043478260869565</v>
+        <v>2.631578947368421</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1060,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D31">
-        <v>0.9389671361502347</v>
+        <v>0.9523809523809524</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1074,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32">
-        <v>0.8264462809917356</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1085,13 +1085,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>157</v>
       </c>
       <c r="D33">
-        <v>1.273885350318471</v>
+        <v>0.6369426751592357</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D34">
-        <v>2.371541501976284</v>
+        <v>2.469135802469136</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1113,13 +1113,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D35">
-        <v>2.966101694915254</v>
+        <v>2.608695652173913</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1130,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D36">
-        <v>4.838709677419355</v>
+        <v>4.938271604938271</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1141,13 +1141,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D37">
-        <v>4.761904761904762</v>
+        <v>4.489795918367347</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1155,13 +1155,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D38">
-        <v>3.214285714285714</v>
+        <v>2.909090909090909</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D39">
-        <v>5.652173913043478</v>
+        <v>5.357142857142857</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1186,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D40">
-        <v>3.139013452914798</v>
+        <v>3.181818181818182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D42">
-        <v>3.082191780821918</v>
+        <v>3.114186851211072</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D44">
-        <v>2.755905511811024</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>236</v>
       </c>
       <c r="D45">
-        <v>3.813559322033898</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1270,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D46">
-        <v>5.204460966542751</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1284,10 +1284,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D47">
-        <v>4.508196721311475</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1298,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D48">
-        <v>4.25531914893617</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51">
-        <v>7.641196013289036</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1354,10 +1354,10 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D52">
-        <v>3.754266211604096</v>
+        <v>3.767123287671233</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D54">
-        <v>4.641350210970464</v>
+        <v>3.404255319148936</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D55">
-        <v>2.371541501976284</v>
+        <v>2.008032128514056</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1410,10 +1410,10 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D56">
-        <v>5.067567567567568</v>
+        <v>5.084745762711865</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1438,10 +1438,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58">
-        <v>2.952029520295203</v>
+        <v>2.962962962962963</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>293</v>
       </c>
       <c r="D60">
-        <v>5.119453924914676</v>
+        <v>4.436860068259386</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D61">
-        <v>3.802281368821293</v>
+        <v>3.461538461538462</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D62">
-        <v>4.417670682730924</v>
+        <v>4.048582995951417</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1508,10 +1508,10 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D63">
-        <v>3.333333333333333</v>
+        <v>3.361344537815126</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1522,10 +1522,10 @@
         <v>6</v>
       </c>
       <c r="C64">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D64">
-        <v>2.105263157894737</v>
+        <v>2.120141342756184</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1536,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D65">
-        <v>2.392344497607656</v>
+        <v>2.415458937198068</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D66">
-        <v>4.017857142857143</v>
+        <v>3.587443946188341</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1564,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D67">
-        <v>3.088803088803089</v>
+        <v>3.10077519379845</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1606,10 +1606,10 @@
         <v>17</v>
       </c>
       <c r="C70">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D70">
-        <v>7.172995780590717</v>
+        <v>7.234042553191489</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1620,10 +1620,10 @@
         <v>20</v>
       </c>
       <c r="C71">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71">
-        <v>8.298755186721991</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1634,10 +1634,10 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72">
-        <v>8.37696335078534</v>
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74">
-        <v>8.988764044943821</v>
+        <v>8.646616541353383</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D75">
-        <v>6.083650190114068</v>
+        <v>5.791505791505791</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76">
-        <v>5.217391304347826</v>
+        <v>4.803493449781659</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77">
-        <v>7.003891050583658</v>
+        <v>6.640625</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1732,10 +1732,10 @@
         <v>16</v>
       </c>
       <c r="C79">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D79">
-        <v>6.22568093385214</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1746,10 +1746,10 @@
         <v>15</v>
       </c>
       <c r="C80">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80">
-        <v>6.521739130434782</v>
+        <v>6.550218340611353</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1760,10 +1760,10 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81">
-        <v>6.222222222222222</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1774,10 +1774,10 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82">
-        <v>5.263157894736842</v>
+        <v>5.286343612334802</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>yearmonth</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1780,6 +1783,20 @@
         <v>5.286343612334802</v>
       </c>
     </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>158</v>
+      </c>
+      <c r="D83">
+        <v>4.430379746835443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>4.430379746835443</v>
+        <v>5.063291139240507</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>5.063291139240507</v>
+        <v>5.69620253164557</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>5.69620253164557</v>
+        <v>6.329113924050633</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>6.329113924050633</v>
+        <v>7.59493670886076</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>7.59493670886076</v>
+        <v>9.49367088607595</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1788,13 +1788,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>158</v>
       </c>
       <c r="D83">
-        <v>9.49367088607595</v>
+        <v>10.12658227848101</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>yearmonth</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,6 +1800,20 @@
         <v>10.12658227848101</v>
       </c>
     </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>252</v>
+      </c>
+      <c r="D84">
+        <v>0.3968253968253968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D84">
-        <v>0.3968253968253968</v>
+        <v>1.574803149606299</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>1.574803149606299</v>
+        <v>1.968503937007874</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>1.968503937007874</v>
+        <v>2.362204724409449</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>2.362204724409449</v>
+        <v>3.543307086614173</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>3.543307086614173</v>
+        <v>3.937007874015748</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>3.937007874015748</v>
+        <v>4.330708661417323</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>4.330708661417323</v>
+        <v>5.118110236220472</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>5.118110236220472</v>
+        <v>5.511811023622047</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>5.511811023622047</v>
+        <v>5.905511811023622</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>5.905511811023622</v>
+        <v>6.299212598425196</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1805,13 +1805,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>254</v>
       </c>
       <c r="D84">
-        <v>6.299212598425196</v>
+        <v>6.692913385826772</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>yearmonth</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1814,6 +1817,20 @@
         <v>6.692913385826772</v>
       </c>
     </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>207</v>
+      </c>
+      <c r="D85">
+        <v>0.4830917874396135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>0.4830917874396135</v>
+        <v>0.966183574879227</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>0.966183574879227</v>
+        <v>1.449275362318841</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>1.449275362318841</v>
+        <v>2.415458937198068</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>2.415458937198068</v>
+        <v>3.381642512077295</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>3.381642512077295</v>
+        <v>3.864734299516908</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>3.864734299516908</v>
+        <v>4.347826086956522</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>4.347826086956522</v>
+        <v>5.314009661835748</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>5.314009661835748</v>
+        <v>5.797101449275362</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>5.797101449275362</v>
+        <v>6.280193236714976</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>6.280193236714976</v>
+        <v>6.763285024154589</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>6.763285024154589</v>
+        <v>7.246376811594203</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>7.246376811594203</v>
+        <v>9.178743961352657</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1822,13 +1822,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>207</v>
       </c>
       <c r="D85">
-        <v>9.178743961352657</v>
+        <v>9.661835748792271</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>yearmonth</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,6 +1834,20 @@
         <v>9.661835748792271</v>
       </c>
     </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>231</v>
+      </c>
+      <c r="D86">
+        <v>3.03030303030303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>3.03030303030303</v>
+        <v>3.896103896103896</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>3.896103896103896</v>
+        <v>4.329004329004329</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>4.329004329004329</v>
+        <v>4.761904761904762</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>4.761904761904762</v>
+        <v>5.627705627705628</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>5.627705627705628</v>
+        <v>6.493506493506493</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>6.493506493506493</v>
+        <v>7.35930735930736</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_mensal.xlsx
@@ -1839,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>231</v>
       </c>
       <c r="D86">
-        <v>7.35930735930736</v>
+        <v>7.792207792207792</v>
       </c>
     </row>
   </sheetData>
